--- a/data/long_bre/P23_3-Urba-long_bre.xlsx
+++ b/data/long_bre/P23_3-Urba-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-15,64%</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,1%</t>
+          <t>-7,99</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-17,41%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-7,51%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-23,62%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 1,85</t>
+          <t>-12,77; 0,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 3,71</t>
+          <t>-9,9; 3,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,23; 6,35</t>
+          <t>-5,48; 9,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 15,42</t>
+          <t>-16,14; -0,7</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-34,06; 3,16</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-29,05; 14,11</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-19,07; 42,41</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-41,04; -2,08</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>8,09</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2,36%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6,68%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-12,89%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21,92%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 8,7</t>
+          <t>-7,05; 8,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 10,27</t>
+          <t>-3,85; 9,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 24,86</t>
+          <t>-16,52; 2,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 25,36</t>
+          <t>-0,48; 16,1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-15,62; 24,24</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-7,44; 22,64</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-31,77; 5,27</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 52,31</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18,41%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-3,53%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15,15%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,34%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 10,86</t>
+          <t>-3,75; 11,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 6,37</t>
+          <t>-7,28; 5,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 47,34</t>
+          <t>-3,14; 12,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 27,53</t>
+          <t>-7,93; 8,11</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-11,62; 50,35</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-23,53; 22,5</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-9,29; 52,02</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-23,21; 33,03</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 9,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 10,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 37,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 42,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,46</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-9,68%</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-9,14%</t>
+          <t>-13,29</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8,04%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,56%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-37,12%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 4,83</t>
+          <t>-6,14; 8,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 3,16</t>
+          <t>-5,53; 9,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 12,38</t>
+          <t>-9,11; 6,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,12; 8,36</t>
+          <t>-26,65; 0,76</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-19,08; 33,33</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-16,83; 35,99</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-26,86; 25,07</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-61,8; 2,08</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>10,6</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-9,66%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-9,88%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-3,04%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>35,42%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 10,99</t>
+          <t>-13,61; 3,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 7,86</t>
+          <t>-11,4; 3,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 49,73</t>
+          <t>-9,8; 8,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 34,75</t>
+          <t>-3,36; 26,2</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-26,34; 9,19</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-23,53; 8,64</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-20,45; 21,99</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-8,2; 125,27</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-10,87</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-23,92%</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>13,75%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7,76%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8,68%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-26,99; 5,79</t>
+          <t>-3,61; 10,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 15,43</t>
+          <t>-4,58; 8,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-49,02; 15,8</t>
+          <t>-5,8; 9,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 94,45</t>
+          <t>-17,52; 17,95</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-11,99; 50,15</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-15,16; 39,1</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-18,01; 43,8</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-43,37; 72,17</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>30,63%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 23,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 23,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 125,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 79,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>-8,24</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-12,47</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>-10,73</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-32,39%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-19,0%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-33,21%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 16,52</t>
+          <t>-22,78; 8,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 0,52</t>
+          <t>-8,21; 14,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-35,83; 86,3</t>
+          <t>-28,04; 6,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-56,6; 4,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-45,27; 27,07</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-29,0; 89,35</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-63,56; 30,35</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-10,83%</t>
+          <t>24,0</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>17,44%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>26,3%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>117,43%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 0,89</t>
+          <t>-15,56; 19,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 4,93</t>
+          <t>-4,88; 23,66</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 2,84</t>
+          <t>7,03; 40,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 19,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-34,86; 85,68</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-11,44; 80,05</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>19,41; 361,12</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-13,15</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>-13,27</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-33,07%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-28,08%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 5,55</t>
+          <t>-10,22; 16,88</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 5,87</t>
+          <t>-27,86; -0,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 15,04</t>
+          <t>-38,45; 6,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 14,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-30,86; 94,62</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-56,4; -1,32</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-60,43; 19,39</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-4,79%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1732,449 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 9,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 3,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 38,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 14,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-3,6</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-9,13</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-10,94%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-3,35%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-26,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-8,85; 1,64</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 4,32</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 4,51</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-16,1; -2,51</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-24,29; 5,77</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-14,28; 17,01</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-18,09; 18,45</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-42,07; -8,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>8,9</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-1,43%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-1,64%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>25,3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-7,2; 4,49</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 6,13</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-7,34; 5,02</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 16,33</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-16,09; 11,83</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-7,41; 15,5</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-15,75; 13,45</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 52,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-4,43%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 8,98</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-5,61; 2,76</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 7,09</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 7,37</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 38,83</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-17,95; 11,26</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-12,73; 27,03</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-21,34; 27,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P23_3-Urba-long_bre.xlsx
+++ b/data/long_bre/P23_3-Urba-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -720,7 +720,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -816,7 +816,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1012,7 +1012,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1108,7 +1108,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1292,7 +1292,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1376,7 +1376,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1560,7 +1560,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1656,7 +1656,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
